--- a/TDStore/EbayImport.xlsx
+++ b/TDStore/EbayImport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB059C0F-5765-4FBF-A66D-474C9AAC1CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACECBBCA-EB17-4E96-A8E9-8A0F3E6799BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.24" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Tên máy</t>
   </si>
@@ -98,6 +98,33 @@
   </si>
   <si>
     <t>VC US-VN</t>
+  </si>
+  <si>
+    <t>271761403878</t>
+  </si>
+  <si>
+    <t>Cam</t>
+  </si>
+  <si>
+    <t>5410 i5/16/0</t>
+  </si>
+  <si>
+    <t>5.3.24</t>
+  </si>
+  <si>
+    <t>9434608205498711249516</t>
+  </si>
+  <si>
+    <t>7420 i7/16/0</t>
+  </si>
+  <si>
+    <t>2.3.24</t>
+  </si>
+  <si>
+    <t>404784410903</t>
+  </si>
+  <si>
+    <t>Dell Precision 7550 15.6"  i7/32/512</t>
   </si>
 </sst>
 </file>
@@ -172,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -184,7 +211,7 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -192,6 +219,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,23 +505,23 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.73046875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" customWidth="1"/>
-    <col min="9" max="9" width="11.9296875" customWidth="1"/>
-    <col min="10" max="10" width="22.265625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,7 +553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -560,7 +590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
@@ -594,7 +624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -628,7 +658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -662,39 +692,109 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="13">
+        <v>150</v>
+      </c>
+      <c r="C6" s="13">
+        <f>B6*25000</f>
+        <v>3750000</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <f>D6*B6</f>
+        <v>150</v>
+      </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
+      <c r="H6" s="13">
+        <f>E6*25000</f>
+        <v>3750000</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="13">
+        <v>230</v>
+      </c>
+      <c r="C7" s="13">
+        <f>B7*25000</f>
+        <v>5750000</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <f>D7*B7</f>
+        <v>230</v>
+      </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="H7" s="13">
+        <f>E7*25000</f>
+        <v>5750000</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6">
+        <v>429</v>
+      </c>
+      <c r="C8" s="6">
+        <f>B8*25000</f>
+        <v>10725000</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <f>D8*B8</f>
+        <v>429</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H8" s="7">
+        <f>E8*25000</f>
+        <v>10725000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -704,21 +804,21 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="8">
         <f>SUM(E2:E8)</f>
-        <v>5566</v>
+        <v>6375</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -734,5 +834,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TDStore/EbayImport.xlsx
+++ b/TDStore/EbayImport.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACECBBCA-EB17-4E96-A8E9-8A0F3E6799BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A89E7C-C3BD-4FB0-9629-6CC0F88AAB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.24" sheetId="1" r:id="rId1"/>
+    <sheet name="3.24" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
   <si>
     <t>Tên máy</t>
   </si>
@@ -125,6 +126,54 @@
   </si>
   <si>
     <t>Dell Precision 7550 15.6"  i7/32/512</t>
+  </si>
+  <si>
+    <t>7420 bios lock i7/16/0</t>
+  </si>
+  <si>
+    <t>5410 i5/8/0</t>
+  </si>
+  <si>
+    <t>7420 i5/16/256</t>
+  </si>
+  <si>
+    <t>271766655471</t>
+  </si>
+  <si>
+    <t>5310 i7/16/0</t>
+  </si>
+  <si>
+    <t>271819315503</t>
+  </si>
+  <si>
+    <t>7420 bạc i7/16/512</t>
+  </si>
+  <si>
+    <t>271861455293</t>
+  </si>
+  <si>
+    <t>271861741722</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre 5550 </t>
+  </si>
+  <si>
+    <t>9434608205499862813267</t>
+  </si>
+  <si>
+    <t>9405508205499862909503</t>
+  </si>
+  <si>
+    <t>7420 bạc i5/16/512</t>
+  </si>
+  <si>
+    <t>Ipad gen 9</t>
+  </si>
+  <si>
+    <t>Lot of 4 7410 + 3x7420</t>
+  </si>
+  <si>
+    <t>271953567180</t>
   </si>
 </sst>
 </file>
@@ -199,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -222,6 +271,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,20 +611,20 @@
         <v>264</v>
       </c>
       <c r="C2" s="6">
-        <f>B2*25000</f>
+        <f t="shared" ref="C2:C8" si="0">B2*25000</f>
         <v>6600000</v>
       </c>
       <c r="D2" s="6">
         <v>10</v>
       </c>
       <c r="E2" s="6">
-        <f>D2*B2</f>
+        <f t="shared" ref="E2:E8" si="1">D2*B2</f>
         <v>2640</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6">
-        <f>E2*25000</f>
+        <f t="shared" ref="H2:H8" si="2">E2*25000</f>
         <v>66000000</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -598,20 +648,20 @@
         <v>180</v>
       </c>
       <c r="C3" s="6">
-        <f>B3*25000</f>
+        <f t="shared" si="0"/>
         <v>4500000</v>
       </c>
       <c r="D3" s="13">
         <v>10</v>
       </c>
       <c r="E3" s="6">
-        <f>D3*B3</f>
+        <f t="shared" si="1"/>
         <v>1800</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="6">
-        <f>E3*25000</f>
+        <f t="shared" si="2"/>
         <v>45000000</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -632,20 +682,20 @@
         <v>394</v>
       </c>
       <c r="C4" s="6">
-        <f>B4*25000</f>
+        <f t="shared" si="0"/>
         <v>9850000</v>
       </c>
       <c r="D4" s="6">
         <v>1</v>
       </c>
       <c r="E4" s="6">
-        <f>D4*B4</f>
+        <f t="shared" si="1"/>
         <v>394</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6">
-        <f>E4*25000</f>
+        <f t="shared" si="2"/>
         <v>9850000</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -666,20 +716,20 @@
         <v>183</v>
       </c>
       <c r="C5" s="6">
-        <f>B5*25000</f>
+        <f t="shared" si="0"/>
         <v>4575000</v>
       </c>
       <c r="D5" s="6">
         <v>4</v>
       </c>
       <c r="E5" s="6">
-        <f>D5*B5</f>
+        <f t="shared" si="1"/>
         <v>732</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6">
-        <f>E5*25000</f>
+        <f t="shared" si="2"/>
         <v>18300000</v>
       </c>
       <c r="I5" s="3" t="s">
@@ -700,20 +750,20 @@
         <v>150</v>
       </c>
       <c r="C6" s="13">
-        <f>B6*25000</f>
+        <f t="shared" si="0"/>
         <v>3750000</v>
       </c>
       <c r="D6" s="13">
         <v>1</v>
       </c>
       <c r="E6" s="13">
-        <f>D6*B6</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13">
-        <f>E6*25000</f>
+        <f t="shared" si="2"/>
         <v>3750000</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -734,20 +784,20 @@
         <v>230</v>
       </c>
       <c r="C7" s="13">
-        <f>B7*25000</f>
+        <f t="shared" si="0"/>
         <v>5750000</v>
       </c>
       <c r="D7" s="13">
         <v>1</v>
       </c>
       <c r="E7" s="13">
-        <f>D7*B7</f>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13">
-        <f>E7*25000</f>
+        <f t="shared" si="2"/>
         <v>5750000</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -768,20 +818,20 @@
         <v>429</v>
       </c>
       <c r="C8" s="6">
-        <f>B8*25000</f>
+        <f t="shared" si="0"/>
         <v>10725000</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
       </c>
       <c r="E8" s="6">
-        <f>D8*B8</f>
+        <f t="shared" si="1"/>
         <v>429</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7">
-        <f>E8*25000</f>
+        <f t="shared" si="2"/>
         <v>10725000</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -836,4 +886,660 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF7DCB1-53C3-41E9-92E4-43B32E673699}">
+  <dimension ref="A1:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6">
+        <v>264</v>
+      </c>
+      <c r="C2" s="6">
+        <f>B2*25500</f>
+        <v>6732000</v>
+      </c>
+      <c r="D2" s="6">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6">
+        <f t="shared" ref="E2:E18" si="0">D2*B2</f>
+        <v>2640</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6">
+        <f t="shared" ref="H2:H18" si="1">E2*25000</f>
+        <v>66000000</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="13">
+        <v>180</v>
+      </c>
+      <c r="C3" s="6">
+        <f t="shared" ref="C3:C18" si="2">B3*25500</f>
+        <v>4590000</v>
+      </c>
+      <c r="D3" s="13">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <f t="shared" si="0"/>
+        <v>1800</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="6">
+        <f t="shared" si="1"/>
+        <v>45000000</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6">
+        <v>394</v>
+      </c>
+      <c r="C4" s="6">
+        <f t="shared" si="2"/>
+        <v>10047000</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" si="0"/>
+        <v>394</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
+        <f t="shared" si="1"/>
+        <v>9850000</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6">
+        <v>183</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" si="2"/>
+        <v>4666500</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>732</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>18300000</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="13">
+        <v>150</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="2"/>
+        <v>3825000</v>
+      </c>
+      <c r="D6" s="13">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13">
+        <f t="shared" si="1"/>
+        <v>3750000</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="13">
+        <v>230</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="2"/>
+        <v>5865000</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13">
+        <f t="shared" si="1"/>
+        <v>5750000</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="6">
+        <v>429</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="2"/>
+        <v>10939500</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>429</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>10725000</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="6">
+        <v>230</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="2"/>
+        <v>5865000</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>5750000</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="6">
+        <v>150</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="2"/>
+        <v>3825000</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18">
+        <f t="shared" si="1"/>
+        <v>3750000</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6">
+        <v>270</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="2"/>
+        <v>6885000</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18">
+        <f t="shared" si="1"/>
+        <v>6750000</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="6">
+        <v>150</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="2"/>
+        <v>3825000</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18">
+        <f t="shared" si="1"/>
+        <v>3750000</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6">
+        <v>365</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="2"/>
+        <v>9307500</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>365</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18">
+        <f t="shared" si="1"/>
+        <v>9125000</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6">
+        <v>340</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="2"/>
+        <v>8670000</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18">
+        <f t="shared" si="1"/>
+        <v>8500000</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="6">
+        <v>468</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="2"/>
+        <v>11934000</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>468</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18">
+        <f t="shared" si="1"/>
+        <v>11700000</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="6">
+        <v>300</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="2"/>
+        <v>7650000</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18">
+        <f t="shared" si="1"/>
+        <v>7500000</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="6">
+        <v>191</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="2"/>
+        <v>4870500</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>191</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18">
+        <f t="shared" si="1"/>
+        <v>4775000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1034</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="2"/>
+        <v>26367000</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>1034</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18">
+        <f t="shared" si="1"/>
+        <v>25850000</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="8">
+        <f>SUM(E2:E18)</f>
+        <v>9873</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8">
+        <f>SUM(H2:H5)</f>
+        <v>139150000</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G22" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TDStore/EbayImport.xlsx
+++ b/TDStore/EbayImport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A89E7C-C3BD-4FB0-9629-6CC0F88AAB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6F48A5-CF14-426D-955D-452AB228CA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2985" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.24" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
   <si>
     <t>Tên máy</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>271953567180</t>
+  </si>
+  <si>
+    <t>Trung bình giá</t>
+  </si>
+  <si>
+    <t>Sửa chữa, ssd, AC</t>
   </si>
 </sst>
 </file>
@@ -195,7 +201,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +223,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -271,7 +289,18 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -890,10 +919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF7DCB1-53C3-41E9-92E4-43B32E673699}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,15 +931,16 @@
     <col min="2" max="2" width="7.85546875" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="15.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,7 +957,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>23</v>
@@ -938,11 +968,14 @@
       <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -969,119 +1002,141 @@
       <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="24">
+        <f t="shared" ref="J2:J3" si="2">(H2+G2+F2)/D2</f>
+        <v>6600000</v>
+      </c>
+      <c r="K2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="26">
         <v>180</v>
       </c>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C18" si="2">B3*25500</f>
+      <c r="C3" s="26">
+        <f t="shared" ref="C3:C18" si="3">B3*25500</f>
         <v>4590000</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="26">
         <v>10</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="26">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="6">
+      <c r="F3" s="26"/>
+      <c r="G3" s="26">
+        <v>7530000</v>
+      </c>
+      <c r="H3" s="26">
         <f t="shared" si="1"/>
         <v>45000000</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="28">
+        <f t="shared" si="2"/>
+        <v>5253000</v>
+      </c>
+      <c r="K3" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="26">
         <v>394</v>
       </c>
-      <c r="C4" s="6">
-        <f t="shared" si="2"/>
+      <c r="C4" s="26">
+        <f t="shared" si="3"/>
         <v>10047000</v>
       </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="26">
+        <v>1</v>
+      </c>
+      <c r="E4" s="26">
         <f t="shared" si="0"/>
         <v>394</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6">
+      <c r="F4" s="27"/>
+      <c r="G4" s="26">
+        <v>1174000</v>
+      </c>
+      <c r="H4" s="26">
         <f t="shared" si="1"/>
         <v>9850000</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="28">
+        <f>(H4+G4+F4)/D4</f>
+        <v>11024000</v>
+      </c>
+      <c r="K4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="20">
         <v>183</v>
       </c>
-      <c r="C5" s="6">
-        <f t="shared" si="2"/>
+      <c r="C5" s="20">
+        <f t="shared" si="3"/>
         <v>4666500</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="20">
         <v>4</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="20">
         <f t="shared" si="0"/>
         <v>732</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6">
+      <c r="F5" s="20">
+        <v>1600000</v>
+      </c>
+      <c r="G5" s="20">
+        <v>2672000</v>
+      </c>
+      <c r="H5" s="20">
         <f t="shared" si="1"/>
         <v>18300000</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="21">
+        <f>(H5+G5+F5)/D5</f>
+        <v>5643000</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" s="23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -1089,7 +1144,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3825000</v>
       </c>
       <c r="D6" s="13">
@@ -1108,14 +1163,15 @@
       <c r="I6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="3"/>
+      <c r="K6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
@@ -1123,7 +1179,7 @@
         <v>230</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5865000</v>
       </c>
       <c r="D7" s="13">
@@ -1142,14 +1198,15 @@
       <c r="I7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>32</v>
       </c>
@@ -1157,7 +1214,7 @@
         <v>429</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10939500</v>
       </c>
       <c r="D8" s="6">
@@ -1176,14 +1233,15 @@
       <c r="I8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="3"/>
+      <c r="K8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
@@ -1191,7 +1249,7 @@
         <v>230</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5865000</v>
       </c>
       <c r="D9" s="6">
@@ -1210,14 +1268,14 @@
       <c r="I9" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1225,7 +1283,7 @@
         <v>150</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3825000</v>
       </c>
       <c r="D10" s="6">
@@ -1236,19 +1294,19 @@
         <v>150</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <f t="shared" si="1"/>
         <v>3750000</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>35</v>
       </c>
@@ -1256,7 +1314,7 @@
         <v>270</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6885000</v>
       </c>
       <c r="D11" s="6">
@@ -1267,19 +1325,19 @@
         <v>270</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
         <f t="shared" si="1"/>
         <v>6750000</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
@@ -1287,7 +1345,7 @@
         <v>150</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3825000</v>
       </c>
       <c r="D12" s="6">
@@ -1298,19 +1356,19 @@
         <v>150</v>
       </c>
       <c r="F12" s="6"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
         <f t="shared" si="1"/>
         <v>3750000</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="K12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -1318,7 +1376,7 @@
         <v>365</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9307500</v>
       </c>
       <c r="D13" s="6">
@@ -1329,19 +1387,19 @@
         <v>365</v>
       </c>
       <c r="F13" s="6"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
         <f t="shared" si="1"/>
         <v>9125000</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>39</v>
       </c>
@@ -1349,7 +1407,7 @@
         <v>340</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8670000</v>
       </c>
       <c r="D14" s="6">
@@ -1360,19 +1418,19 @@
         <v>340</v>
       </c>
       <c r="F14" s="6"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
         <f t="shared" si="1"/>
         <v>8500000</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -1380,7 +1438,7 @@
         <v>468</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11934000</v>
       </c>
       <c r="D15" s="6">
@@ -1391,19 +1449,19 @@
         <v>468</v>
       </c>
       <c r="F15" s="6"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <f t="shared" si="1"/>
         <v>11700000</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
@@ -1411,7 +1469,7 @@
         <v>300</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7650000</v>
       </c>
       <c r="D16" s="6">
@@ -1422,19 +1480,19 @@
         <v>300</v>
       </c>
       <c r="F16" s="6"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <f t="shared" si="1"/>
         <v>7500000</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="K16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
@@ -1442,7 +1500,7 @@
         <v>191</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4870500</v>
       </c>
       <c r="D17" s="6">
@@ -1453,13 +1511,13 @@
         <v>191</v>
       </c>
       <c r="F17" s="6"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
         <f t="shared" si="1"/>
         <v>4775000</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
@@ -1467,7 +1525,7 @@
         <v>1034</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26367000</v>
       </c>
       <c r="D18" s="6">
@@ -1478,39 +1536,37 @@
         <v>1034</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
         <f t="shared" si="1"/>
         <v>25850000</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="K18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1524,7 +1580,7 @@
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>

--- a/TDStore/EbayImport.xlsx
+++ b/TDStore/EbayImport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6F48A5-CF14-426D-955D-452AB228CA3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28672862-A637-4B6D-8ED5-7D32ABC56565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2985" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.24" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
   <si>
     <t>Tên máy</t>
   </si>
@@ -180,6 +180,72 @@
   </si>
   <si>
     <t>Sửa chữa, ssd, AC</t>
+  </si>
+  <si>
+    <t>9434608205498736508445</t>
+  </si>
+  <si>
+    <t>Dell Latitude 7290 i5/8/0</t>
+  </si>
+  <si>
+    <t>272018490267</t>
+  </si>
+  <si>
+    <t>Latitude 5400 i5/8/0</t>
+  </si>
+  <si>
+    <t>272020533057</t>
+  </si>
+  <si>
+    <t>Hp envy 13</t>
+  </si>
+  <si>
+    <t>272014327197</t>
+  </si>
+  <si>
+    <t>272021642624</t>
+  </si>
+  <si>
+    <t>Pre 3540 i7/16/0</t>
+  </si>
+  <si>
+    <t>Hp 840 G7 i5/16/256</t>
+  </si>
+  <si>
+    <t>1ZAC98200306105116</t>
+  </si>
+  <si>
+    <t>Latitude 5411 i5/16/128</t>
+  </si>
+  <si>
+    <t>9434608205499877468483</t>
+  </si>
+  <si>
+    <t>latitude 7420 i7/16/256</t>
+  </si>
+  <si>
+    <t>775528938561</t>
+  </si>
+  <si>
+    <t>640808356184</t>
+  </si>
+  <si>
+    <t>A Phuong</t>
+  </si>
+  <si>
+    <t>7400 i5/16/256</t>
+  </si>
+  <si>
+    <t>1ZY00E080393694678</t>
+  </si>
+  <si>
+    <t>1ZA637E40393164552</t>
+  </si>
+  <si>
+    <t>7430 i7/16/512</t>
+  </si>
+  <si>
+    <t>272391337908</t>
   </si>
 </sst>
 </file>
@@ -201,7 +267,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +304,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -266,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -289,18 +361,33 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,20 +674,20 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30.265625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.86328125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.73046875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="22.265625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -669,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
@@ -703,7 +790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -737,7 +824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -771,7 +858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -805,7 +892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
@@ -839,7 +926,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
         <v>32</v>
       </c>
@@ -873,7 +960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -883,7 +970,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -897,7 +984,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -919,29 +1006,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF7DCB1-53C3-41E9-92E4-43B32E673699}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.86328125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.86328125" customWidth="1"/>
+    <col min="3" max="3" width="11.73046875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.1328125" style="3" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="16.1328125" customWidth="1"/>
+    <col min="11" max="11" width="22.265625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -975,8 +1062,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6">
@@ -990,19 +1077,19 @@
         <v>10</v>
       </c>
       <c r="E2" s="6">
-        <f t="shared" ref="E2:E18" si="0">D2*B2</f>
+        <f t="shared" ref="E2:E29" si="0">D2*B2</f>
         <v>2640</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:H18" si="1">E2*25000</f>
+        <f t="shared" ref="H2:H29" si="1">E2*25000</f>
         <v>66000000</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="3">
         <f t="shared" ref="J2:J3" si="2">(H2+G2+F2)/D2</f>
         <v>6600000</v>
       </c>
@@ -1013,131 +1100,131 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="22">
         <v>180</v>
       </c>
-      <c r="C3" s="26">
-        <f t="shared" ref="C3:C18" si="3">B3*25500</f>
+      <c r="C3" s="22">
+        <f t="shared" ref="C3:C29" si="3">B3*25500</f>
         <v>4590000</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="22">
         <v>10</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="22">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22">
         <v>7530000</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="22">
         <f t="shared" si="1"/>
         <v>45000000</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="24">
         <f t="shared" si="2"/>
         <v>5253000</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="27" t="s">
+      <c r="L3" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="22">
         <v>394</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="22">
         <f t="shared" si="3"/>
         <v>10047000</v>
       </c>
-      <c r="D4" s="26">
-        <v>1</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22">
         <f t="shared" si="0"/>
         <v>394</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="26">
+      <c r="F4" s="23"/>
+      <c r="G4" s="22">
         <v>1174000</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="22">
         <f t="shared" si="1"/>
         <v>9850000</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="24">
         <f>(H4+G4+F4)/D4</f>
         <v>11024000</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L4" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>183</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <f t="shared" si="3"/>
         <v>4666500</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>4</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <f t="shared" si="0"/>
         <v>732</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>1600000</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <v>2672000</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <f t="shared" si="1"/>
         <v>18300000</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J5" s="19">
         <f>(H5+G5+F5)/D5</f>
         <v>5643000</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="23" t="s">
+      <c r="L5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" s="29" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="13">
@@ -1171,8 +1258,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="13">
@@ -1206,7 +1293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="17" t="s">
         <v>32</v>
       </c>
@@ -1241,8 +1328,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B9" s="6">
@@ -1275,8 +1362,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="6">
@@ -1306,8 +1393,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B11" s="6">
@@ -1337,8 +1424,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="6">
@@ -1368,8 +1455,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="6">
@@ -1399,8 +1486,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A14" s="17" t="s">
         <v>39</v>
       </c>
       <c r="B14" s="6">
@@ -1430,8 +1517,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A15" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B15" s="6">
@@ -1461,8 +1548,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A16" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="6">
@@ -1492,8 +1579,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B17" s="6">
@@ -1516,9 +1603,15 @@
         <f t="shared" si="1"/>
         <v>4775000</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="K17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="17" t="s">
         <v>47</v>
       </c>
       <c r="B18" s="6">
@@ -1548,51 +1641,381 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="6">
+        <v>87</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="3"/>
+        <v>2218500</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>87</v>
+      </c>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="H19" s="3">
+        <f t="shared" si="1"/>
+        <v>2175000</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="6">
+        <v>105</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="3"/>
+        <v>2677500</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
       <c r="F20" s="6"/>
       <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8">
-        <f>SUM(E2:E18)</f>
-        <v>9873</v>
-      </c>
-      <c r="F21" s="9" t="s">
+      <c r="H20" s="3">
+        <f t="shared" si="1"/>
+        <v>2625000</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="6">
+        <v>380</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="3"/>
+        <v>9690000</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <f t="shared" si="1"/>
+        <v>9500000</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="6">
+        <v>167</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="3"/>
+        <v>4258500</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <f t="shared" si="1"/>
+        <v>4175000</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="6">
+        <v>229</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="3"/>
+        <v>5839500</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>229</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <f t="shared" si="1"/>
+        <v>5725000</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="31">
+        <v>190</v>
+      </c>
+      <c r="C24" s="31">
+        <f t="shared" si="3"/>
+        <v>4845000</v>
+      </c>
+      <c r="D24" s="31">
+        <v>1</v>
+      </c>
+      <c r="E24" s="31">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32">
+        <f t="shared" si="1"/>
+        <v>4750000</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="6">
+        <v>315</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="3"/>
+        <v>8032500</v>
+      </c>
+      <c r="D25" s="6">
+        <v>1</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <f t="shared" si="1"/>
+        <v>7875000</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="L25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="6">
+        <v>180</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="3"/>
+        <v>4590000</v>
+      </c>
+      <c r="D27" s="6">
+        <v>17</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>3060</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <f t="shared" si="1"/>
+        <v>76500000</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="6">
+        <v>205</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="3"/>
+        <v>5227500</v>
+      </c>
+      <c r="D28" s="6">
+        <v>3</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>615</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <f t="shared" si="1"/>
+        <v>15375000</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A29" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="6">
+        <v>424</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="3"/>
+        <v>10812000</v>
+      </c>
+      <c r="D29" s="6">
+        <v>1</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>424</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <f t="shared" si="1"/>
+        <v>10600000</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A30" s="17"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A31" s="17"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="8">
+        <f>SUM(E2:E25)</f>
+        <v>11346</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8">
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A32" s="17"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8">
         <f>SUM(H2:H5)</f>
         <v>139150000</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TDStore/EbayImport.xlsx
+++ b/TDStore/EbayImport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04.Private\TDStore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28672862-A637-4B6D-8ED5-7D32ABC56565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AA2790-397B-44A3-9114-9D328205DA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.24" sheetId="1" r:id="rId1"/>
@@ -267,7 +267,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +310,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -338,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -388,6 +394,13 @@
     <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,20 +687,20 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.265625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.86328125" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.3984375" customWidth="1"/>
-    <col min="6" max="6" width="12.73046875" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="22.265625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
@@ -756,7 +769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>14</v>
       </c>
@@ -790,7 +803,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -824,7 +837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -858,7 +871,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>26</v>
       </c>
@@ -892,7 +905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>29</v>
       </c>
@@ -926,7 +939,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>32</v>
       </c>
@@ -960,7 +973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -970,7 +983,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -984,7 +997,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1006,28 +1019,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF7DCB1-53C3-41E9-92E4-43B32E673699}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="7.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="15.1328125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="16.1328125" customWidth="1"/>
-    <col min="11" max="11" width="22.265625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>11</v>
       </c>
@@ -1083,14 +1096,14 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:H29" si="1">E2*25000</f>
+        <f>(E2*25000)</f>
         <v>66000000</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J3" si="2">(H2+G2+F2)/D2</f>
+        <f t="shared" ref="J2:J32" si="1">(H2+G2+F2)/D2</f>
         <v>6600000</v>
       </c>
       <c r="K2" s="15" t="s">
@@ -1100,7 +1113,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="27" t="s">
         <v>14</v>
       </c>
@@ -1108,7 +1121,7 @@
         <v>180</v>
       </c>
       <c r="C3" s="22">
-        <f t="shared" ref="C3:C29" si="3">B3*25500</f>
+        <f t="shared" ref="C3:C29" si="2">B3*25500</f>
         <v>4590000</v>
       </c>
       <c r="D3" s="22">
@@ -1122,15 +1135,15 @@
       <c r="G3" s="22">
         <v>7530000</v>
       </c>
-      <c r="H3" s="22">
-        <f t="shared" si="1"/>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H32" si="3">(E3*25000)</f>
         <v>45000000</v>
       </c>
       <c r="I3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="24">
-        <f t="shared" si="2"/>
+      <c r="J3" s="3">
+        <f>(H3+G3+F3)/D3</f>
         <v>5253000</v>
       </c>
       <c r="K3" s="25" t="s">
@@ -1140,7 +1153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
         <v>17</v>
       </c>
@@ -1148,7 +1161,7 @@
         <v>394</v>
       </c>
       <c r="C4" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10047000</v>
       </c>
       <c r="D4" s="22">
@@ -1162,15 +1175,15 @@
       <c r="G4" s="22">
         <v>1174000</v>
       </c>
-      <c r="H4" s="22">
-        <f t="shared" si="1"/>
+      <c r="H4" s="6">
+        <f t="shared" si="3"/>
         <v>9850000</v>
       </c>
       <c r="I4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="24">
-        <f>(H4+G4+F4)/D4</f>
+      <c r="J4" s="3">
+        <f t="shared" si="1"/>
         <v>11024000</v>
       </c>
       <c r="K4" s="25" t="s">
@@ -1180,7 +1193,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>20</v>
       </c>
@@ -1188,7 +1201,7 @@
         <v>183</v>
       </c>
       <c r="C5" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4666500</v>
       </c>
       <c r="D5" s="18">
@@ -1204,15 +1217,15 @@
       <c r="G5" s="18">
         <v>2672000</v>
       </c>
-      <c r="H5" s="18">
-        <f t="shared" si="1"/>
+      <c r="H5" s="6">
+        <f t="shared" si="3"/>
         <v>18300000</v>
       </c>
       <c r="I5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="19">
-        <f>(H5+G5+F5)/D5</f>
+      <c r="J5" s="3">
+        <f t="shared" si="1"/>
         <v>5643000</v>
       </c>
       <c r="K5" s="20" t="s">
@@ -1223,7 +1236,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>26</v>
       </c>
@@ -1231,7 +1244,7 @@
         <v>150</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3825000</v>
       </c>
       <c r="D6" s="13">
@@ -1243,14 +1256,17 @@
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="13">
-        <f t="shared" si="1"/>
+      <c r="H6" s="6">
+        <f t="shared" si="3"/>
         <v>3750000</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <f t="shared" si="1"/>
+        <v>3750000</v>
+      </c>
       <c r="K6" s="10" t="s">
         <v>24</v>
       </c>
@@ -1258,7 +1274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>29</v>
       </c>
@@ -1266,7 +1282,7 @@
         <v>230</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5865000</v>
       </c>
       <c r="D7" s="13">
@@ -1277,15 +1293,20 @@
         <v>230</v>
       </c>
       <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13">
-        <f t="shared" si="1"/>
+      <c r="G7" s="13">
+        <v>783000</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="3"/>
         <v>5750000</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <f t="shared" si="1"/>
+        <v>6533000</v>
+      </c>
       <c r="K7" s="10" t="s">
         <v>28</v>
       </c>
@@ -1293,7 +1314,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>32</v>
       </c>
@@ -1301,7 +1322,7 @@
         <v>429</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10939500</v>
       </c>
       <c r="D8" s="6">
@@ -1314,13 +1335,16 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10725000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <f t="shared" si="1"/>
+        <v>10725000</v>
+      </c>
       <c r="K8" s="10" t="s">
         <v>31</v>
       </c>
@@ -1328,7 +1352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>33</v>
       </c>
@@ -1336,7 +1360,7 @@
         <v>230</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5865000</v>
       </c>
       <c r="D9" s="6">
@@ -1349,12 +1373,16 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5750000</v>
       </c>
       <c r="I9" t="s">
         <v>30</v>
       </c>
+      <c r="J9" s="3">
+        <f t="shared" si="1"/>
+        <v>5750000</v>
+      </c>
       <c r="K9" s="10" t="s">
         <v>28</v>
       </c>
@@ -1362,7 +1390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>34</v>
       </c>
@@ -1370,7 +1398,7 @@
         <v>150</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3825000</v>
       </c>
       <c r="D10" s="6">
@@ -1382,7 +1410,11 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3">
+      <c r="H10" s="6">
+        <f t="shared" si="3"/>
+        <v>3750000</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="1"/>
         <v>3750000</v>
       </c>
@@ -1393,7 +1425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>35</v>
       </c>
@@ -1401,7 +1433,7 @@
         <v>270</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6885000</v>
       </c>
       <c r="D11" s="6">
@@ -1413,7 +1445,11 @@
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3">
+      <c r="H11" s="6">
+        <f t="shared" si="3"/>
+        <v>6750000</v>
+      </c>
+      <c r="J11" s="3">
         <f t="shared" si="1"/>
         <v>6750000</v>
       </c>
@@ -1424,7 +1460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>37</v>
       </c>
@@ -1432,7 +1468,7 @@
         <v>150</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3825000</v>
       </c>
       <c r="D12" s="6">
@@ -1442,11 +1478,17 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6">
+        <v>691000</v>
+      </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="3">
-        <f t="shared" si="1"/>
+      <c r="H12" s="6">
+        <f t="shared" si="3"/>
         <v>3750000</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="1"/>
+        <v>4441000</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>38</v>
@@ -1455,7 +1497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>39</v>
       </c>
@@ -1463,7 +1505,7 @@
         <v>365</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9307500</v>
       </c>
       <c r="D13" s="6">
@@ -1475,7 +1517,11 @@
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3">
+      <c r="H13" s="6">
+        <f t="shared" si="3"/>
+        <v>9125000</v>
+      </c>
+      <c r="J13" s="3">
         <f t="shared" si="1"/>
         <v>9125000</v>
       </c>
@@ -1486,7 +1532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>39</v>
       </c>
@@ -1494,7 +1540,7 @@
         <v>340</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8670000</v>
       </c>
       <c r="D14" s="6">
@@ -1506,7 +1552,11 @@
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="3">
+      <c r="H14" s="6">
+        <f t="shared" si="3"/>
+        <v>8500000</v>
+      </c>
+      <c r="J14" s="3">
         <f t="shared" si="1"/>
         <v>8500000</v>
       </c>
@@ -1517,7 +1567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>42</v>
       </c>
@@ -1525,7 +1575,7 @@
         <v>468</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11934000</v>
       </c>
       <c r="D15" s="6">
@@ -1535,11 +1585,17 @@
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6">
+        <v>944000</v>
+      </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="3">
-        <f t="shared" si="1"/>
+      <c r="H15" s="6">
+        <f t="shared" si="3"/>
         <v>11700000</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="1"/>
+        <v>12644000</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>43</v>
@@ -1548,7 +1604,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>45</v>
       </c>
@@ -1556,7 +1612,7 @@
         <v>300</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7650000</v>
       </c>
       <c r="D16" s="6">
@@ -1566,11 +1622,17 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6">
+        <v>829000</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="3">
-        <f t="shared" si="1"/>
+      <c r="H16" s="6">
+        <f t="shared" si="3"/>
         <v>7500000</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="1"/>
+        <v>8329000</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>44</v>
@@ -1579,7 +1641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>46</v>
       </c>
@@ -1587,7 +1649,7 @@
         <v>191</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4870500</v>
       </c>
       <c r="D17" s="6">
@@ -1599,7 +1661,11 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="3">
+      <c r="H17" s="6">
+        <f t="shared" si="3"/>
+        <v>4775000</v>
+      </c>
+      <c r="J17" s="3">
         <f t="shared" si="1"/>
         <v>4775000</v>
       </c>
@@ -1610,38 +1676,45 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="36">
         <v>1034</v>
       </c>
-      <c r="C18" s="6">
-        <f t="shared" si="3"/>
+      <c r="C18" s="36">
+        <f t="shared" si="2"/>
         <v>26367000</v>
       </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="D18" s="36">
+        <v>1</v>
+      </c>
+      <c r="E18" s="36">
         <f t="shared" si="0"/>
         <v>1034</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3">
-        <f t="shared" si="1"/>
+      <c r="F18" s="36">
+        <v>3068000</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18" s="36">
+        <f t="shared" si="3"/>
         <v>25850000</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="I18" s="38"/>
+      <c r="J18" s="37">
+        <f t="shared" si="1"/>
+        <v>28918000</v>
+      </c>
+      <c r="K18" s="39" t="s">
         <v>48</v>
       </c>
       <c r="L18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>52</v>
       </c>
@@ -1649,7 +1722,7 @@
         <v>87</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2218500</v>
       </c>
       <c r="D19" s="6">
@@ -1661,7 +1734,11 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="3">
+      <c r="H19" s="6">
+        <f t="shared" si="3"/>
+        <v>2175000</v>
+      </c>
+      <c r="J19" s="3">
         <f t="shared" si="1"/>
         <v>2175000</v>
       </c>
@@ -1672,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>54</v>
       </c>
@@ -1680,7 +1757,7 @@
         <v>105</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2677500</v>
       </c>
       <c r="D20" s="6">
@@ -1690,11 +1767,17 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="6">
+        <v>714000</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="3">
-        <f t="shared" si="1"/>
+      <c r="H20" s="6">
+        <f t="shared" si="3"/>
         <v>2625000</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="1"/>
+        <v>3339000</v>
       </c>
       <c r="K20" s="10" t="s">
         <v>55</v>
@@ -1703,7 +1786,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>56</v>
       </c>
@@ -1711,7 +1794,7 @@
         <v>380</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9690000</v>
       </c>
       <c r="D21" s="6">
@@ -1723,7 +1806,11 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3">
+      <c r="H21" s="6">
+        <f t="shared" si="3"/>
+        <v>9500000</v>
+      </c>
+      <c r="J21" s="3">
         <f t="shared" si="1"/>
         <v>9500000</v>
       </c>
@@ -1734,7 +1821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>59</v>
       </c>
@@ -1742,7 +1829,7 @@
         <v>167</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4258500</v>
       </c>
       <c r="D22" s="6">
@@ -1752,11 +1839,17 @@
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6">
+        <v>829000</v>
+      </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="3">
-        <f t="shared" si="1"/>
+      <c r="H22" s="6">
+        <f t="shared" si="3"/>
         <v>4175000</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="1"/>
+        <v>5004000</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>58</v>
@@ -1765,7 +1858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>60</v>
       </c>
@@ -1773,7 +1866,7 @@
         <v>229</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5839500</v>
       </c>
       <c r="D23" s="6">
@@ -1783,11 +1876,17 @@
         <f t="shared" si="0"/>
         <v>229</v>
       </c>
-      <c r="F23" s="6"/>
+      <c r="F23" s="6">
+        <v>806000</v>
+      </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <f t="shared" si="1"/>
+      <c r="H23" s="6">
+        <f t="shared" si="3"/>
         <v>5725000</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="1"/>
+        <v>6531000</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>61</v>
@@ -1796,7 +1895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>62</v>
       </c>
@@ -1804,7 +1903,7 @@
         <v>190</v>
       </c>
       <c r="C24" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4845000</v>
       </c>
       <c r="D24" s="31">
@@ -1816,12 +1915,15 @@
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="32"/>
-      <c r="H24" s="32">
-        <f t="shared" si="1"/>
+      <c r="H24" s="6">
+        <f t="shared" si="3"/>
         <v>4750000</v>
       </c>
       <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
+      <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>4750000</v>
+      </c>
       <c r="K24" s="34" t="s">
         <v>63</v>
       </c>
@@ -1829,7 +1931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>64</v>
       </c>
@@ -1837,7 +1939,7 @@
         <v>315</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8032500</v>
       </c>
       <c r="D25" s="6">
@@ -1849,7 +1951,11 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3">
+      <c r="H25" s="6">
+        <f t="shared" si="3"/>
+        <v>7875000</v>
+      </c>
+      <c r="J25" s="3">
         <f t="shared" si="1"/>
         <v>7875000</v>
       </c>
@@ -1860,13 +1966,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>67</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D26" s="6"/>
@@ -1876,9 +1982,13 @@
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3">
-        <f t="shared" si="1"/>
+      <c r="H26" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="J26" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>66</v>
@@ -1887,7 +1997,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>68</v>
       </c>
@@ -1895,7 +2005,7 @@
         <v>180</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4590000</v>
       </c>
       <c r="D27" s="6">
@@ -1907,9 +2017,13 @@
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3">
-        <f t="shared" si="1"/>
+      <c r="H27" s="6">
+        <f t="shared" si="3"/>
         <v>76500000</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="1"/>
+        <v>4500000</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>69</v>
@@ -1918,7 +2032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>68</v>
       </c>
@@ -1926,7 +2040,7 @@
         <v>205</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5227500</v>
       </c>
       <c r="D28" s="6">
@@ -1938,9 +2052,13 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3">
-        <f t="shared" si="1"/>
+      <c r="H28" s="6">
+        <f t="shared" si="3"/>
         <v>15375000</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="1"/>
+        <v>5125000</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>70</v>
@@ -1949,7 +2067,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>71</v>
       </c>
@@ -1957,7 +2075,7 @@
         <v>424</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10812000</v>
       </c>
       <c r="D29" s="6">
@@ -1969,7 +2087,11 @@
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3">
+      <c r="H29" s="6">
+        <f t="shared" si="3"/>
+        <v>10600000</v>
+      </c>
+      <c r="J29" s="3">
         <f t="shared" si="1"/>
         <v>10600000</v>
       </c>
@@ -1980,7 +2102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -1988,34 +2110,76 @@
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="H30" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8">
         <f>SUM(E2:E25)</f>
         <v>11346</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="11"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A32" s="17"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8">
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8">
         <f>SUM(H2:H5)</f>
         <v>139150000</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F34" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G32" s="11"/>
+      <c r="G34" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TDStore/EbayImport.xlsx
+++ b/TDStore/EbayImport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10.NewPC\01.TDStore\04.Private\TDStore\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AA2790-397B-44A3-9114-9D328205DA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE3299A-5FFA-466D-978E-1B35E03A4C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2.24" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>Tên máy</t>
   </si>
@@ -146,9 +146,6 @@
     <t>271819315503</t>
   </si>
   <si>
-    <t>7420 bạc i7/16/512</t>
-  </si>
-  <si>
     <t>271861455293</t>
   </si>
   <si>
@@ -246,13 +243,28 @@
   </si>
   <si>
     <t>272391337908</t>
+  </si>
+  <si>
+    <t>7420 bạc i7/16/512 2in1</t>
+  </si>
+  <si>
+    <t>7420 bạc i7/16/512 thường</t>
+  </si>
+  <si>
+    <t>3x7420 i7/16/512</t>
+  </si>
+  <si>
+    <t>7410 i5/16/512</t>
+  </si>
+  <si>
+    <t>1Z00EE374268051013</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,8 +278,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,12 +325,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,13 +406,13 @@
     <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF7DCB1-53C3-41E9-92E4-43B32E673699}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1048,7 @@
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="15.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1057,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>23</v>
@@ -1069,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>7</v>
@@ -1090,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="E2" s="6">
-        <f t="shared" ref="E2:E29" si="0">D2*B2</f>
+        <f t="shared" ref="E2:E31" si="0">D2*B2</f>
         <v>2640</v>
       </c>
       <c r="F2" s="6"/>
@@ -1103,7 +1115,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="3">
-        <f t="shared" ref="J2:J32" si="1">(H2+G2+F2)/D2</f>
+        <f t="shared" ref="J2:J34" si="1">(H2+G2+F2)/D2</f>
         <v>6600000</v>
       </c>
       <c r="K2" s="15" t="s">
@@ -1121,7 +1133,7 @@
         <v>180</v>
       </c>
       <c r="C3" s="22">
-        <f t="shared" ref="C3:C29" si="2">B3*25500</f>
+        <f t="shared" ref="C3:C31" si="2">B3*25500</f>
         <v>4590000</v>
       </c>
       <c r="D3" s="22">
@@ -1136,7 +1148,7 @@
         <v>7530000</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H32" si="3">(E3*25000)</f>
+        <f t="shared" ref="H3:H34" si="3">(E3*25000)</f>
         <v>45000000</v>
       </c>
       <c r="I3" s="24" t="s">
@@ -1255,7 +1267,9 @@
         <v>150</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="13">
+        <v>710000</v>
+      </c>
       <c r="H6" s="6">
         <f t="shared" si="3"/>
         <v>3750000</v>
@@ -1265,7 +1279,7 @@
       </c>
       <c r="J6" s="3">
         <f t="shared" si="1"/>
-        <v>3750000</v>
+        <v>4460000</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>24</v>
@@ -1333,7 +1347,9 @@
         <v>429</v>
       </c>
       <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6">
+        <v>1140500</v>
+      </c>
       <c r="H8" s="6">
         <f t="shared" si="3"/>
         <v>10725000</v>
@@ -1342,11 +1358,11 @@
         <v>30</v>
       </c>
       <c r="J8" s="3">
-        <f t="shared" si="1"/>
-        <v>10725000</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>31</v>
+        <f>(H8+G8+F8)/D8</f>
+        <v>11865500</v>
+      </c>
+      <c r="K8" s="35" t="s">
+        <v>76</v>
       </c>
       <c r="L8" t="s">
         <v>8</v>
@@ -1371,7 +1387,9 @@
         <v>230</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6">
+        <v>783000</v>
+      </c>
       <c r="H9" s="6">
         <f t="shared" si="3"/>
         <v>5750000</v>
@@ -1381,7 +1399,7 @@
       </c>
       <c r="J9" s="3">
         <f t="shared" si="1"/>
-        <v>5750000</v>
+        <v>6533000</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>28</v>
@@ -1409,14 +1427,16 @@
         <v>150</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>714000</v>
+      </c>
       <c r="H10" s="6">
         <f t="shared" si="3"/>
         <v>3750000</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="1"/>
-        <v>3750000</v>
+        <v>4464000</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>24</v>
@@ -1444,14 +1464,16 @@
         <v>270</v>
       </c>
       <c r="F11" s="6"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>669000</v>
+      </c>
       <c r="H11" s="6">
         <f t="shared" si="3"/>
         <v>6750000</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="1"/>
-        <v>6750000</v>
+        <v>7419000</v>
       </c>
       <c r="K11" s="10" t="s">
         <v>36</v>
@@ -1478,10 +1500,9 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <v>691000</v>
       </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="6">
         <f t="shared" si="3"/>
         <v>3750000</v>
@@ -1499,7 +1520,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B13" s="6">
         <v>365</v>
@@ -1515,18 +1536,19 @@
         <f t="shared" si="0"/>
         <v>365</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="39">
+        <v>792000</v>
+      </c>
       <c r="H13" s="6">
         <f t="shared" si="3"/>
         <v>9125000</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="1"/>
-        <v>9125000</v>
+        <v>9917000</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L13" t="s">
         <v>8</v>
@@ -1534,7 +1556,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="B14" s="6">
         <v>340</v>
@@ -1550,18 +1572,19 @@
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="6">
+        <v>792000</v>
+      </c>
       <c r="H14" s="6">
         <f t="shared" si="3"/>
         <v>8500000</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="1"/>
-        <v>8500000</v>
+        <v>9292000</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L14" t="s">
         <v>8</v>
@@ -1569,7 +1592,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="6">
         <v>468</v>
@@ -1585,10 +1608,9 @@
         <f t="shared" si="0"/>
         <v>468</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <v>944000</v>
       </c>
-      <c r="G15" s="3"/>
       <c r="H15" s="6">
         <f t="shared" si="3"/>
         <v>11700000</v>
@@ -1598,7 +1620,7 @@
         <v>12644000</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15" t="s">
         <v>19</v>
@@ -1606,7 +1628,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="6">
         <v>300</v>
@@ -1622,10 +1644,9 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <v>829000</v>
       </c>
-      <c r="G16" s="3"/>
       <c r="H16" s="6">
         <f t="shared" si="3"/>
         <v>7500000</v>
@@ -1635,7 +1656,7 @@
         <v>8329000</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L16" t="s">
         <v>19</v>
@@ -1643,7 +1664,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17" s="6">
         <v>191</v>
@@ -1670,152 +1691,148 @@
         <v>4775000</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1034</v>
+      </c>
+      <c r="C18" s="8">
+        <f t="shared" si="2"/>
+        <v>26367000</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>1034</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="8">
+        <v>3068000</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="3"/>
+        <v>25850000</v>
+      </c>
+      <c r="I18" s="11"/>
+      <c r="J18" s="37">
+        <f t="shared" si="1"/>
+        <v>28918000</v>
+      </c>
+      <c r="K18" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="36">
-        <v>1034</v>
-      </c>
-      <c r="C18" s="36">
-        <f t="shared" si="2"/>
-        <v>26367000</v>
-      </c>
-      <c r="D18" s="36">
-        <v>1</v>
-      </c>
-      <c r="E18" s="36">
-        <f t="shared" si="0"/>
-        <v>1034</v>
-      </c>
-      <c r="F18" s="36">
-        <v>3068000</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="36">
-        <f t="shared" si="3"/>
-        <v>25850000</v>
-      </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="37">
-        <f t="shared" si="1"/>
-        <v>28918000</v>
-      </c>
-      <c r="K18" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="L18" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="6">
-        <v>87</v>
-      </c>
-      <c r="C19" s="6">
-        <f t="shared" si="2"/>
-        <v>2218500</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="0"/>
-        <v>87</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="6">
-        <f t="shared" si="3"/>
-        <v>2175000</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="1"/>
-        <v>2175000</v>
-      </c>
-      <c r="K19" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="L19" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="8">
+        <v>134</v>
+      </c>
+      <c r="C19" s="8">
+        <f t="shared" si="2"/>
+        <v>3417000</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="37">
+        <v>767000</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="3"/>
+        <v>3350000</v>
+      </c>
+      <c r="I19" s="11"/>
+      <c r="J19" s="37">
+        <f t="shared" si="1"/>
+        <v>4117000</v>
+      </c>
+      <c r="K19" s="38"/>
+      <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="6">
-        <v>105</v>
-      </c>
-      <c r="C20" s="6">
-        <f t="shared" si="2"/>
-        <v>2677500</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="F20" s="6">
-        <v>714000</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="6">
-        <f t="shared" si="3"/>
-        <v>2625000</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" si="1"/>
-        <v>3339000</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="8">
+        <v>300</v>
+      </c>
+      <c r="C20" s="8">
+        <f t="shared" si="2"/>
+        <v>7650000</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="37">
+        <v>2301000</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="3"/>
+        <v>22500000</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="37">
+        <f>(H20+G20+F20)/D20</f>
+        <v>8267000</v>
+      </c>
+      <c r="K20" s="38"/>
+      <c r="L20" s="11"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B21" s="6">
-        <v>380</v>
+        <v>87</v>
       </c>
       <c r="C21" s="6">
         <f t="shared" si="2"/>
-        <v>9690000</v>
+        <v>2218500</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>87</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="3"/>
       <c r="H21" s="6">
         <f t="shared" si="3"/>
-        <v>9500000</v>
+        <v>2175000</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="1"/>
-        <v>9500000</v>
+        <v>2175000</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L21" t="s">
         <v>8</v>
@@ -1823,36 +1840,35 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B22" s="6">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="C22" s="6">
         <f t="shared" si="2"/>
-        <v>4258500</v>
+        <v>2677500</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="0"/>
-        <v>167</v>
-      </c>
-      <c r="F22" s="6">
-        <v>829000</v>
-      </c>
-      <c r="G22" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="G22" s="6">
+        <v>714000</v>
+      </c>
       <c r="H22" s="6">
         <f t="shared" si="3"/>
-        <v>4175000</v>
+        <v>2625000</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="1"/>
-        <v>5004000</v>
+        <v>3339000</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L22" t="s">
         <v>19</v>
@@ -1860,173 +1876,180 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B23" s="6">
-        <v>229</v>
+        <v>380</v>
       </c>
       <c r="C23" s="6">
         <f t="shared" si="2"/>
-        <v>5839500</v>
+        <v>9690000</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="0"/>
-        <v>229</v>
-      </c>
-      <c r="F23" s="6">
-        <v>806000</v>
-      </c>
-      <c r="G23" s="3"/>
+        <v>380</v>
+      </c>
+      <c r="G23" s="6">
+        <v>751000</v>
+      </c>
       <c r="H23" s="6">
         <f t="shared" si="3"/>
-        <v>5725000</v>
+        <v>9500000</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="1"/>
-        <v>6531000</v>
+        <v>10251000</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="6">
+        <v>167</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="2"/>
+        <v>4258500</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+      <c r="G24" s="6">
+        <v>829000</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="3"/>
+        <v>4175000</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="1"/>
+        <v>5004000</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="31">
-        <v>190</v>
-      </c>
-      <c r="C24" s="31">
-        <f t="shared" si="2"/>
-        <v>4845000</v>
-      </c>
-      <c r="D24" s="31">
-        <v>1</v>
-      </c>
-      <c r="E24" s="31">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="6">
-        <f t="shared" si="3"/>
-        <v>4750000</v>
-      </c>
-      <c r="I24" s="33"/>
-      <c r="J24" s="3">
-        <f t="shared" si="1"/>
-        <v>4750000</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B25" s="6">
-        <v>315</v>
+        <v>229</v>
       </c>
       <c r="C25" s="6">
         <f t="shared" si="2"/>
-        <v>8032500</v>
+        <v>5839500</v>
       </c>
       <c r="D25" s="6">
         <v>1</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="G25" s="6">
+        <v>806000</v>
+      </c>
       <c r="H25" s="6">
         <f t="shared" si="3"/>
-        <v>7875000</v>
+        <v>5725000</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="1"/>
-        <v>7875000</v>
+        <v>6531000</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="31">
+        <v>190</v>
+      </c>
+      <c r="C26" s="31">
+        <f t="shared" si="2"/>
+        <v>4845000</v>
+      </c>
+      <c r="D26" s="31">
+        <v>1</v>
+      </c>
+      <c r="E26" s="31">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32">
+        <v>853000</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="3"/>
+        <v>4750000</v>
+      </c>
+      <c r="I26" s="33"/>
+      <c r="J26" s="3">
+        <f t="shared" si="1"/>
+        <v>5603000</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="L26" s="33" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="L26" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B27" s="6">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="C27" s="6">
         <f t="shared" si="2"/>
-        <v>4590000</v>
+        <v>8032500</v>
       </c>
       <c r="D27" s="6">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="0"/>
-        <v>3060</v>
+        <v>315</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="3"/>
       <c r="H27" s="6">
         <f t="shared" si="3"/>
-        <v>76500000</v>
+        <v>7875000</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="1"/>
-        <v>4500000</v>
+        <v>7875000</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L27" t="s">
         <v>8</v>
@@ -2034,34 +2057,30 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="6">
-        <v>205</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="6">
         <f t="shared" si="2"/>
-        <v>5227500</v>
-      </c>
-      <c r="D28" s="6">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D28" s="6"/>
       <c r="E28" s="6">
         <f t="shared" si="0"/>
-        <v>615</v>
+        <v>0</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="3"/>
       <c r="H28" s="6">
         <f t="shared" si="3"/>
-        <v>15375000</v>
-      </c>
-      <c r="J28" s="3">
-        <f t="shared" si="1"/>
-        <v>5125000</v>
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="L28" t="s">
         <v>19</v>
@@ -2069,71 +2088,107 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B29" s="6">
-        <v>424</v>
+        <v>180</v>
       </c>
       <c r="C29" s="6">
         <f t="shared" si="2"/>
-        <v>10812000</v>
+        <v>4590000</v>
       </c>
       <c r="D29" s="6">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="0"/>
-        <v>424</v>
+        <v>3060</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="3"/>
       <c r="H29" s="6">
         <f t="shared" si="3"/>
-        <v>10600000</v>
+        <v>76500000</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="1"/>
-        <v>10600000</v>
+        <v>4500000</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="L29" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="A30" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="6">
+        <v>205</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="2"/>
+        <v>5227500</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>615</v>
+      </c>
       <c r="F30" s="6"/>
       <c r="G30" s="3"/>
       <c r="H30" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>15375000</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="1"/>
+        <v>5125000</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="A31" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="6">
+        <v>424</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="2"/>
+        <v>10812000</v>
+      </c>
+      <c r="D31" s="6">
+        <v>1</v>
+      </c>
+      <c r="E31" s="6">
+        <f t="shared" si="0"/>
+        <v>424</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="3"/>
       <c r="H31" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>10600000</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="1"/>
+        <v>10600000</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -2153,33 +2208,67 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8">
-        <f>SUM(E2:E25)</f>
-        <v>11346</v>
-      </c>
-      <c r="F33" s="9" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="17"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="17"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8">
+        <f>SUM(E2:E27)</f>
+        <v>12380</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8">
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8">
         <f>SUM(H2:H5)</f>
         <v>139150000</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="11"/>
+      <c r="G36" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
